--- a/src/test/resources/email_submit_02.xlsx
+++ b/src/test/resources/email_submit_02.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -59,10 +59,7 @@
     <t>skweb39@gmail.com</t>
   </si>
   <si>
-    <t>unique-na-key</t>
-  </si>
-  <si>
-    <t>skweb1005@gmail.com</t>
+    <t>40c79cf6-bf1d-4f87-8cb9-95fb5a8fc619</t>
   </si>
 </sst>
 </file>
@@ -387,43 +384,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C2" s="1">
         <v>0.0</v>
       </c>
     </row>
